--- a/excel_routes/route_MED_HBE_threats.xlsx
+++ b/excel_routes/route_MED_HBE_threats.xlsx
@@ -48,14 +48,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
+        <fgColor rgb="00F8D7DA"/>
+        <bgColor rgb="00F8D7DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>1298</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-809</v>
+        <v>-849</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>15</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -601,28 +601,28 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>1298</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-722</v>
+        <v>-759</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -646,17 +646,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>666</v>
+        <v>576</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>1298</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-632</v>
+        <v>-722</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>46</v>
@@ -667,7 +667,7 @@
       <c r="I4" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -691,7 +691,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -712,7 +712,7 @@
       <c r="I5" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -736,28 +736,28 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>729</v>
+        <v>666</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1298</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-569</v>
+        <v>-632</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -785,26 +785,26 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>915</v>
+        <v>769</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1298</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-383</v>
+        <v>-529</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>14-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1203</v>
+        <v>576</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1298</v>
+        <v>620</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-95</v>
+        <v>-44</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>46</v>
@@ -871,17 +871,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>496</v>
+        <v>576</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>620</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-124</v>
+        <v>-44</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>46</v>
@@ -916,7 +916,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>14-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
         <v>576</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-44</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>46</v>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-680</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>576</v>
+        <v>791</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>560</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>46</v>
@@ -1078,96 +1078,6 @@
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>15-JAN-26</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>SM-486</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-696</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>576</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>560</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J14" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>15-JAN-26</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>SM-486</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-680</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>791</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>560</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>231</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_MED_HBE_threats.xlsx
+++ b/excel_routes/route_MED_HBE_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,22 +605,22 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>649</v>
+        <v>459</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>879</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-230</v>
+        <v>-420</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -646,17 +646,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-3447</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>668</v>
+        <v>875</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>879</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-211</v>
+        <v>-4</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>46</v>
@@ -667,9 +667,9 @@
       <c r="I4" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -691,26 +691,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>879</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-100</v>
+        <v>-4</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,26 +736,26 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>875</v>
+        <v>329</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>879</v>
+        <v>836</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-4</v>
+        <v>-507</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,26 +781,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>875</v>
+        <v>359</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>879</v>
+        <v>836</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-4</v>
+        <v>-477</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,30 +826,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-680</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>915</v>
+        <v>460</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>879</v>
+        <v>836</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>36</v>
+        <v>-376</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -871,26 +871,26 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>279</v>
+        <v>460</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-557</v>
+        <v>-376</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -916,26 +916,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>329</v>
+        <v>460</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-507</v>
+        <v>-376</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -961,30 +961,30 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>359</v>
+        <v>515</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-477</v>
+        <v>-321</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-680</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-376</v>
+        <v>-319</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>23</v>
@@ -1027,9 +1027,9 @@
       <c r="I12" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-376</v>
+        <v>-308</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>23</v>
@@ -1096,17 +1096,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-376</v>
+        <v>-308</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>23</v>
@@ -1141,30 +1141,30 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-321</v>
+        <v>-308</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>Saudia SV-317</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-319</v>
+        <v>-308</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>23</v>
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,30 +1276,30 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>674</v>
+        <v>279</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-162</v>
+        <v>-557</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J18" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>15</v>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,26 +1321,26 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-680</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>674</v>
+        <v>460</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-162</v>
+        <v>-376</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1370,26 +1370,26 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>674</v>
+        <v>528</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-162</v>
+        <v>-308</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,30 +1411,30 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-317</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>674</v>
+        <v>609</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-162</v>
+        <v>-227</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1456,26 +1456,26 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>279</v>
+        <v>875</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-557</v>
+        <v>39</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -1496,35 +1496,35 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SM-486</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-680</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>460</v>
+        <v>279</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>836</v>
+        <v>1691</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-376</v>
+        <v>-1412</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>15</v>
+      </c>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1541,35 +1541,35 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-486</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>528</v>
+        <v>419</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>836</v>
+        <v>1691</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-308</v>
+        <v>-1272</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1586,35 +1586,35 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-486</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-680</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>609</v>
+        <v>460</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>836</v>
+        <v>1691</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-227</v>
+        <v>-1231</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1631,35 +1631,35 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>SM-486</t>
+          <t>SM-984</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>875</v>
+        <v>528</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>836</v>
+        <v>1691</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>39</v>
+        <v>-1163</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1681,26 +1681,26 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>279</v>
+        <v>609</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-1412</v>
+        <v>-1082</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
@@ -1726,26 +1726,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>419</v>
+        <v>875</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-1272</v>
+        <v>-816</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
@@ -1771,17 +1771,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-680</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>460</v>
+        <v>1114</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-1231</v>
+        <v>-577</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>23</v>
@@ -1792,9 +1792,9 @@
       <c r="I29" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>528</v>
+        <v>1114</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-1163</v>
+        <v>-577</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>23</v>
@@ -1837,9 +1837,9 @@
       <c r="I30" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -1861,26 +1861,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>609</v>
+        <v>1120</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-1082</v>
+        <v>-571</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J31" s="5" t="inlineStr">
         <is>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>875</v>
+        <v>1260</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-816</v>
+        <v>-431</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>46</v>
@@ -1951,26 +1951,26 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1114</v>
+        <v>1415</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-577</v>
+        <v>-276</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
@@ -1996,17 +1996,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1120</v>
+        <v>1637</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-571</v>
+        <v>-54</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>46</v>
@@ -2017,9 +2017,9 @@
       <c r="I34" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J34" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2031,36 +2031,36 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>23-FEB-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-952</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1260</v>
+        <v>329</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-431</v>
+        <v>-1362</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J35" s="5" t="inlineStr">
         <is>
@@ -2076,36 +2076,36 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>23-FEB-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-952</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1260</v>
+        <v>359</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-431</v>
+        <v>-1332</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J36" s="5" t="inlineStr">
         <is>
@@ -2121,40 +2121,40 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>23-FEB-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-952</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1415</v>
+        <v>419</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-276</v>
+        <v>-1272</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J37" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2166,40 +2166,40 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>23-FEB-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>SM-984</t>
+          <t>SM-952</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1637</v>
+        <v>419</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-54</v>
+        <v>-1272</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J38" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2221,30 +2221,30 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>329</v>
+        <v>1114</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-1362</v>
+        <v>-577</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
@@ -2266,30 +2266,30 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>419</v>
+        <v>1114</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-1272</v>
+        <v>-577</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J40" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
@@ -2311,26 +2311,26 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>419</v>
+        <v>1260</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-1272</v>
+        <v>-431</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J41" s="5" t="inlineStr">
         <is>
@@ -2356,30 +2356,30 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>549</v>
+        <v>1580</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-1142</v>
+        <v>-111</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J42" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -2391,40 +2391,40 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-486</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-680</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1114</v>
+        <v>695</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1691</v>
+        <v>560</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-577</v>
+        <v>135</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J43" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
@@ -2436,40 +2436,40 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-486</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-680</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>1114</v>
+        <v>695</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1691</v>
+        <v>560</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-577</v>
+        <v>135</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J44" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
@@ -2481,27 +2481,27 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-486</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-680</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>1580</v>
+        <v>695</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1691</v>
+        <v>560</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-111</v>
+        <v>135</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>46</v>
@@ -2526,36 +2526,36 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>SM-952</t>
+          <t>SM-486</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1580</v>
+        <v>689</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1691</v>
+        <v>758</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-111</v>
+        <v>-69</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2585,13 +2585,13 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>695</v>
+        <v>930</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>560</v>
+        <v>758</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>46</v>
@@ -2616,7 +2616,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,26 +2626,26 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-680</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>695</v>
+        <v>559</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>560</v>
+        <v>1088</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>135</v>
+        <v>-529</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J48" s="3" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2671,26 +2671,26 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-680</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>695</v>
+        <v>559</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>560</v>
+        <v>1088</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>135</v>
+        <v>-529</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J49" s="3" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2716,26 +2716,26 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-680</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>930</v>
+        <v>589</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>172</v>
+        <v>-499</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
@@ -2761,30 +2761,30 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>559</v>
+        <v>739</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-529</v>
+        <v>-349</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
@@ -2806,26 +2806,26 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>559</v>
+        <v>985</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-529</v>
+        <v>-103</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
@@ -2851,26 +2851,26 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>589</v>
+        <v>985</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-499</v>
+        <v>-103</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
@@ -2941,17 +2941,17 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>985</v>
+        <v>1042</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-103</v>
+        <v>-46</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>46</v>
@@ -2986,17 +2986,17 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-680</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>985</v>
+        <v>1060</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-103</v>
+        <v>-28</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>46</v>
@@ -3007,9 +3007,9 @@
       <c r="I56" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
@@ -3031,17 +3031,17 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>985</v>
+        <v>1120</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-103</v>
+        <v>32</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>46</v>
@@ -3066,7 +3066,7 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -3076,17 +3076,17 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>1042</v>
+        <v>1120</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1088</v>
+        <v>1184</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-46</v>
+        <v>-64</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>46</v>
@@ -3111,7 +3111,7 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -3121,17 +3121,17 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-680</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>1060</v>
+        <v>1120</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>1088</v>
+        <v>1184</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-28</v>
+        <v>-64</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>46</v>
@@ -3142,102 +3142,12 @@
       <c r="I59" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J59" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>17-MAR-26</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>SM-486</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-676</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>1184</v>
-      </c>
-      <c r="F60" s="2" t="n">
-        <v>-64</v>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H60" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I60" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>17-MAR-26</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>SM-486</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-694</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E61" s="2" t="n">
-        <v>1184</v>
-      </c>
-      <c r="F61" s="2" t="n">
-        <v>-64</v>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I61" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_MED_HBE_threats.xlsx
+++ b/excel_routes/route_MED_HBE_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>713</v>
+        <v>948</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>560</v>
+        <v>758</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>46</v>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,26 +691,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-680</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>948</v>
+        <v>797</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>758</v>
+        <v>1088</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>190</v>
+        <v>-291</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -736,30 +736,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>779</v>
+        <v>1003</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-309</v>
+        <v>-85</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -781,26 +781,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>797</v>
+        <v>1003</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-291</v>
+        <v>-85</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -826,30 +826,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>799</v>
+        <v>1003</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-289</v>
+        <v>-85</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-680</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1003</v>
+        <v>1078</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>1088</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-85</v>
+        <v>-10</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>46</v>
@@ -892,9 +892,9 @@
       <c r="I9" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,17 +916,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1088</v>
+        <v>1298</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-85</v>
+        <v>-20</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>46</v>
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1088</v>
+        <v>1298</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-85</v>
+        <v>-20</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>46</v>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1048</v>
+        <v>1278</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1088</v>
+        <v>1298</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>46</v>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1048</v>
+        <v>1335</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1088</v>
+        <v>1298</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-40</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>46</v>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1048</v>
+        <v>679</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1088</v>
+        <v>914</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-40</v>
+        <v>-235</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>46</v>
@@ -1117,9 +1117,9 @@
       <c r="I14" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,17 +1141,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-680</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1078</v>
+        <v>679</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1088</v>
+        <v>914</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-10</v>
+        <v>-235</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>46</v>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1278</v>
+        <v>679</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1298</v>
+        <v>914</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-20</v>
+        <v>-235</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>46</v>
@@ -1207,9 +1207,9 @@
       <c r="I16" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,26 +1231,26 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1278</v>
+        <v>799</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1298</v>
+        <v>914</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-20</v>
+        <v>-115</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,17 +1276,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-680</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1278</v>
+        <v>1078</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1298</v>
+        <v>914</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-20</v>
+        <v>164</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>46</v>
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,30 +1321,30 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>560</v>
+        <v>1298</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>30</v>
+        <v>-679</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,17 +1366,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>590</v>
+        <v>679</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>914</v>
+        <v>1298</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-324</v>
+        <v>-619</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>46</v>
@@ -1387,9 +1387,9 @@
       <c r="I20" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>590</v>
+        <v>679</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>914</v>
+        <v>1298</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-324</v>
+        <v>-619</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>46</v>
@@ -1432,9 +1432,9 @@
       <c r="I21" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,30 +1456,30 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>590</v>
+        <v>889</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>914</v>
+        <v>1298</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-324</v>
+        <v>-409</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,26 +1501,26 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-680</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>914</v>
+        <v>1298</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>164</v>
+        <v>-219</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
@@ -1528,96 +1528,6 @@
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>28-MAY-26</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>SM-486</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-381</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>-708</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J24" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>28-MAY-26</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>SM-486</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-391</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>-708</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J25" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
